--- a/output/comparison_g3vsother_2023.xlsx
+++ b/output/comparison_g3vsother_2023.xlsx
@@ -26,19 +26,19 @@
     <t xml:space="preserve">Other States</t>
   </si>
   <si>
-    <t xml:space="preserve">$255,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37</t>
+    <t xml:space="preserve">$205,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94</t>
   </si>
   <si>
     <t xml:space="preserve">Texas and Louisiana</t>
   </si>
   <si>
-    <t xml:space="preserve">$225,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40</t>
+    <t xml:space="preserve">$235,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64</t>
   </si>
 </sst>
 </file>
